--- a/Files/Vaccine_May 24, 2007.xlsx
+++ b/Files/Vaccine_May 24, 2007.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="176">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP</t>
+    <t xml:space="preserve">DTaP/</t>
   </si>
   <si>
     <t xml:space="preserve">Tripedia</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">$70.72</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP </t>
+    <t xml:space="preserve">DTaP-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">TriHIBit</t>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">$26.34</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B^</t>
+    <t xml:space="preserve">Hepatitis B-Hib</t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">$28.74</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only^</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only</t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">$78.42</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">$124.37</t>
   </si>
   <si>
-    <t xml:space="preserve">MeningococcalConjugate (Groups A, C, Y and W-135) </t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">$88.68</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR)</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR)/</t>
   </si>
   <si>
     <t xml:space="preserve">MMRII</t>
@@ -289,7 +289,7 @@
     <t xml:space="preserve">$44.84</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -322,13 +322,13 @@
     <t xml:space="preserve">$66.94</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids^</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids</t>
   </si>
   <si>
     <t xml:space="preserve">DECAVAC</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose syringes No Needle 10 pack - 1 dose vials </t>
+    <t xml:space="preserve">10 pack - 1 dose syringes No Needle </t>
   </si>
   <si>
     <t xml:space="preserve">$17.38</t>
@@ -337,21 +337,24 @@
     <t xml:space="preserve">$19.14</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis</t>
+    <t xml:space="preserve">10 pack - 1 dose vials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis/</t>
   </si>
   <si>
     <t xml:space="preserve">BOOSTRIX</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose TL syringes, No Needle </t>
-  </si>
-  <si>
     <t xml:space="preserve">$30.75</t>
   </si>
   <si>
     <t xml:space="preserve">$36.25</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose TL syringes, No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">ADACEL</t>
   </si>
   <si>
@@ -391,7 +394,7 @@
     <t xml:space="preserve">$54.98</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult^</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis B-Adult</t>
@@ -457,7 +460,7 @@
     <t xml:space="preserve">$145.35</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza   (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -469,7 +472,7 @@
     <t xml:space="preserve">$11.198</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 6-35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone
@@ -485,7 +488,7 @@
     <t xml:space="preserve">$13.613</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 36 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">$13.751</t>
@@ -497,7 +500,7 @@
     <t xml:space="preserve">No-Preservative</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza   (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluvirin</t>
@@ -512,7 +515,7 @@
     <t xml:space="preserve">Chiron</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 18 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 18 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluarix</t>
@@ -524,7 +527,7 @@
     <t xml:space="preserve">$12.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza Live, Intranasal (Age 5-49 years)</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 5-49 years)</t>
   </si>
   <si>
     <t xml:space="preserve">FluMist</t>
@@ -1549,7 +1552,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
         <v>105</v>
@@ -1569,16 +1572,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
         <v>107</v>
-      </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>109</v>
       </c>
       <c r="E32" t="s">
         <v>110</v>
@@ -1598,16 +1601,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
         <v>110</v>
@@ -1627,10 +1630,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1639,10 +1642,10 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G34" s="1">
         <v>39538</v>
@@ -1656,10 +1659,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1668,10 +1671,10 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G35" s="1">
         <v>39538</v>
@@ -1730,7 +1733,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -1742,10 +1745,10 @@
         <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G2" s="1">
         <v>39263</v>
@@ -1759,7 +1762,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -1771,10 +1774,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1">
         <v>39263</v>
@@ -1788,7 +1791,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
@@ -1800,10 +1803,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1">
         <v>39263</v>
@@ -1817,7 +1820,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -1829,10 +1832,10 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1">
         <v>39263</v>
@@ -1846,7 +1849,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -1875,7 +1878,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -1904,7 +1907,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -1916,10 +1919,10 @@
         <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G8" s="1">
         <v>39263</v>
@@ -1933,7 +1936,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
@@ -1945,7 +1948,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -1962,10 +1965,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1974,10 +1977,10 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G10" s="1">
         <v>39263</v>
@@ -1991,10 +1994,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2003,10 +2006,10 @@
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G11" s="1">
         <v>39263</v>
@@ -2020,22 +2023,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G12" s="1">
         <v>39263</v>
@@ -2052,25 +2055,25 @@
         <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G13" s="1">
         <v>39263</v>
       </c>
       <c r="H13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -2078,10 +2081,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -2090,10 +2093,10 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G14" s="1">
         <v>39263</v>
@@ -2152,10 +2155,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2164,10 +2167,10 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G2" s="1">
         <v>39506</v>
@@ -2181,22 +2184,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G3" s="1">
         <v>39506</v>
@@ -2210,22 +2213,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G4" s="1">
         <v>39506</v>
@@ -2239,10 +2242,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2251,10 +2254,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G5" s="1">
         <v>39506</v>
@@ -2268,10 +2271,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2280,16 +2283,16 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G6" s="1">
         <v>39506</v>
       </c>
       <c r="H6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -2297,19 +2300,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -2326,28 +2329,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G8" s="1">
         <v>39506</v>
       </c>
       <c r="H8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>

--- a/Files/Vaccine_May 24, 2007.xlsx
+++ b/Files/Vaccine_May 24, 2007.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">$21.44</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV*</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV</t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -475,8 +475,7 @@
     <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose Preservative-free</t>
+    <t xml:space="preserve">Fluzone Pediatric dose Preservative-free</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose syringes</t>
